--- a/data/job_location.xlsx
+++ b/data/job_location.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>LocationKey</t>
+          <t>JobLocationKey</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>LocationId</t>
+          <t>JobLocationId</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
